--- a/biology/Botanique/Reichensteiner/Reichensteiner.xlsx
+++ b/biology/Botanique/Reichensteiner/Reichensteiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  reichensteiner  est un cépage de cuve allemand de raisins blancs. Son nom est un hommage château Reichenstein à Trechtingshausen.
@@ -512,11 +524,13 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Heinrich Birk dans l'institut Institut für Rebenzüchtung und Rebenveredlung der Hessischen Forschungsanstalt für Weinbau, Gartenbau, Getränketechnologie und Landespflege à Geisenheim. L'origine génétique est vérifiée et c'est un croisement des cépages Müller-Thurgau x (Madeleine Angevine x Calabre blanc) réalisé en 1939. Le cépage est autorisé dans de nombreux Länder en Allemagne, où il couvre 330 hectares. 
 Il est un peu cultivé en Grande-Bretagne (50 hectares), Belgique (12 hectares) et en Nouvelle-Zélande (98 hectares).
-Il a été utilisé en Suisse comme base génétique par l'institut agronomique de recherches de Changins. En 1970, il a été métissé avec le gamay N. Trois cépages issus de ce métissage ont été homologués, le gamaret N, le garanoir N[1] et le mara N. Les deux premiers ont connu un grand succès et sont devenus au fil du temps les 4e et 5e cépages rouges les plus cultivés en Suisse. À l'inverse, le Reichensteiner d'origine, lui, n'est plus cultivé que de manière très marginale (0,23 ha en 2019) dans ce pays.
+Il a été utilisé en Suisse comme base génétique par l'institut agronomique de recherches de Changins. En 1970, il a été métissé avec le gamay N. Trois cépages issus de ce métissage ont été homologués, le gamaret N, le garanoir N et le mara N. Les deux premiers ont connu un grand succès et sont devenus au fil du temps les 4e et 5e cépages rouges les plus cultivés en Suisse. À l'inverse, le Reichensteiner d'origine, lui, n'est plus cultivé que de manière très marginale (0,23 ha en 2019) dans ce pays.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc.
 Jeunes feuilles cotonneux, rougeâtres.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque moyenne: avec le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont grandes et les baies sont de taille moyenne. La grappe est conique, ailée et lâche.
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  reichensteiner est connu sous le nom de Gm 18-92
 </t>
